--- a/base_iepd/documentation/superhero-mapping.xlsx
+++ b/base_iepd/documentation/superhero-mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t xml:space="preserve">Source Container Type</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Bla bla bla…</t>
   </si>
   <si>
+    <t xml:space="preserve">SuperHero</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t xml:space="preserve">one person</t>
   </si>
   <si>
-    <t xml:space="preserve">nc:Person/nc:PersonType/nc:PersonName</t>
-  </si>
-  <si>
     <t xml:space="preserve">A human being.</t>
   </si>
   <si>
     <t xml:space="preserve">1..1</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">Given Name</t>
   </si>
   <si>
     <t xml:space="preserve">a superhero's name (first name)</t>
@@ -103,16 +103,25 @@
     <t xml:space="preserve">one name</t>
   </si>
   <si>
-    <t xml:space="preserve">nc:Person/nc:PersonNameType/nc:PersonGivenName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc:PersonNameType</t>
+    <t xml:space="preserve">nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc:PersonNameTextType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A first name of a person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surname</t>
   </si>
   <si>
     <t xml:space="preserve">a superhero's name (family name)</t>
   </si>
   <si>
-    <t xml:space="preserve">nc:Person/nc:PersonNameType/nc:PersonSurName</t>
+    <t xml:space="preserve">nc:PersonSurName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A last name or family name of a person.</t>
   </si>
 </sst>
 </file>
@@ -437,21 +446,21 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.83"/>
   </cols>
@@ -522,21 +531,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>14</v>
@@ -545,7 +554,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>16</v>
@@ -557,7 +566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -565,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>25</v>
@@ -577,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>27</v>
@@ -586,24 +595,24 @@
         <v>28</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
@@ -612,16 +621,16 @@
         <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>23</v>

--- a/base_iepd/documentation/superhero-mapping.xlsx
+++ b/base_iepd/documentation/superhero-mapping.xlsx
@@ -157,7 +157,7 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -222,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -231,38 +231,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -291,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,15 +272,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -316,19 +288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,15 +296,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,12 +411,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.83"/>
   </cols>
@@ -500,7 +456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="56" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="55.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -531,7 +487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -566,23 +522,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -597,27 +553,27 @@
       <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -632,7 +588,7 @@
       <c r="J5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
